--- a/Datasets/CONASAMI/SMG_2011.xlsx
+++ b/Datasets/CONASAMI/SMG_2011.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="2486">
   <si>
     <t>AG_CONASAMI</t>
   </si>
@@ -7437,15 +7437,9 @@
     <t>Nombre del Dataset</t>
   </si>
   <si>
-    <t>Clasificación de los municipios en tres áreas geográficas</t>
-  </si>
-  <si>
     <t>Descripcion del dataset</t>
   </si>
   <si>
-    <t>Clasificación de areas geograficas para asignación de salarios mínimos, vigente antes del 26 de noviembre de 2012</t>
-  </si>
-  <si>
     <t>Disponibilidad Temporal</t>
   </si>
   <si>
@@ -7462,9 +7456,6 @@
   </si>
   <si>
     <t>Notas</t>
-  </si>
-  <si>
-    <t>Vigente antes del 26 de noviembre de 2012</t>
   </si>
   <si>
     <t>Fuente</t>
@@ -7490,6 +7481,12 @@
   </si>
   <si>
     <t>SMG_2011</t>
+  </si>
+  <si>
+    <t>Clasificación de areas geograficas para asignación de salarios mínimos, vigente antes del 26 de noviembre de 2012</t>
+  </si>
+  <si>
+    <t>Clasificación de los municipios en tres áreas geográficas</t>
   </si>
 </sst>
 </file>
@@ -7904,7 +7901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7922,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -35006,8 +35003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35029,71 +35026,71 @@
         <v>2468</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2469</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2471</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2478</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
     </row>
   </sheetData>
